--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0853EC8A-DD7B-42C4-A20F-70D25A8B40A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF4879-E8E6-4502-A305-9695D3A7CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Password</t>
   </si>
@@ -79,6 +79,17 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=uC7vajbnZS4</t>
+  </si>
+  <si>
+    <t>Git Hub Login</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+  </si>
+  <si>
+    <t>User :: vtlpradeep@gmail.com
+Password :: Q1w2e3r4PKS$
+User :: singh10021983</t>
   </si>
 </sst>
 </file>
@@ -123,9 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C15"/>
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,12 +505,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{1CB71C98-5AD7-43F2-9DCE-E05B3D1C8299}"/>
     <hyperlink ref="C14" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
     <hyperlink ref="C15" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF4879-E8E6-4502-A305-9695D3A7CF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BCA97-175F-49E3-8827-084321F37587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Password</t>
   </si>
@@ -90,6 +90,9 @@
     <t>User :: vtlpradeep@gmail.com
 Password :: Q1w2e3r4PKS$
 User :: singh10021983</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +521,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BCA97-175F-49E3-8827-084321F37587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AAA228-D36E-4D82-8889-0CC37300E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 User :: singh10021983</t>
   </si>
   <si>
-    <t>a</t>
+    <t>update1</t>
   </si>
 </sst>
 </file>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AAA228-D36E-4D82-8889-0CC37300E68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD1637-D3A1-4E9F-8B93-0688900A2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Password</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>update1</t>
+  </si>
+  <si>
+    <t>update2</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,6 +529,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCD1637-D3A1-4E9F-8B93-0688900A2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622278E-F220-4ABB-B6E3-20636F169218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2565" windowWidth="25785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Password</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>update2</t>
+  </si>
+  <si>
+    <t>Chatgpt</t>
+  </si>
+  <si>
+    <t>Q1w2e3PKS$</t>
+  </si>
+  <si>
+    <t>Pradeep Singh</t>
+  </si>
+  <si>
+    <t>sk-proj-IIKi0IedwDaawn9g0ub6T3BlbkFJSh9D0PLxso1MJC6Zjll9</t>
+  </si>
+  <si>
+    <t>OpenAI</t>
+  </si>
+  <si>
+    <t>https://openai.com/</t>
   </si>
 </sst>
 </file>
@@ -427,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C21"/>
+  <dimension ref="B2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,6 +552,42 @@
         <v>22</v>
       </c>
     </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>
@@ -541,6 +595,8 @@
     <hyperlink ref="C14" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
     <hyperlink ref="C15" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
     <hyperlink ref="C17" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
+    <hyperlink ref="C27" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622278E-F220-4ABB-B6E3-20636F169218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8983F3E0-401C-42EF-BB93-AE44C5C57E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2565" windowWidth="25785" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
@@ -92,12 +92,6 @@
 User :: singh10021983</t>
   </si>
   <si>
-    <t>update1</t>
-  </si>
-  <si>
-    <t>update2</t>
-  </si>
-  <si>
     <t>Chatgpt</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>https://openai.com/</t>
+  </si>
+  <si>
+    <t>https://confluence.it.keysight.com/pages/viewpage.action?pageId=537364208</t>
+  </si>
+  <si>
+    <t>Keysight AI/ML Page</t>
   </si>
 </sst>
 </file>
@@ -445,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C29"/>
+  <dimension ref="B2:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,8 +543,11 @@
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -552,40 +555,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>24</v>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -595,8 +593,9 @@
     <hyperlink ref="C14" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
     <hyperlink ref="C15" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
     <hyperlink ref="C17" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
-    <hyperlink ref="C27" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
+    <hyperlink ref="C24" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8983F3E0-401C-42EF-BB93-AE44C5C57E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3ADA97-9038-4A4E-B0FD-9A9C94376A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Password</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Keysight AI/ML Page</t>
+  </si>
+  <si>
+    <t>jenkins.io/doc/book/pipeline/jenkinsfile/#handling-failure</t>
+  </si>
+  <si>
+    <t>Jenkins documentation</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C28"/>
+  <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +590,14 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3ADA97-9038-4A4E-B0FD-9A9C94376A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A315DC-D997-4551-8115-76B9003D1791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C30"/>
+  <dimension ref="B2:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,6 +598,11 @@
       </c>
       <c r="C30" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A315DC-D997-4551-8115-76B9003D1791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935DFE0E-A8E7-4B77-B8E0-5860E61D061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Password</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Jenkins documentation</t>
+  </si>
+  <si>
+    <t>Tag1.1</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="B2:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +604,9 @@
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
       <c r="C32">
         <v>1</v>
       </c>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935DFE0E-A8E7-4B77-B8E0-5860E61D061F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFDA996-2916-4EBF-9E3E-6D2BEE6AA87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Password</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Tag1.1</t>
+  </si>
+  <si>
+    <t>https://youtu.be/saiCjlJpfdA</t>
+  </si>
+  <si>
+    <t>Jenkins BuildTag</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C32"/>
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,92 +528,106 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>1</v>
       </c>
     </row>
@@ -615,12 +635,13 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{1CB71C98-5AD7-43F2-9DCE-E05B3D1C8299}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
-    <hyperlink ref="C17" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
-    <hyperlink ref="C24" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
-    <hyperlink ref="C28" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
+    <hyperlink ref="C14" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
+    <hyperlink ref="C21" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
+    <hyperlink ref="C29" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
+    <hyperlink ref="C15" r:id="rId9" xr:uid="{CCDDDD7F-0855-4F49-9FE0-819956E8932D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFDA996-2916-4EBF-9E3E-6D2BEE6AA87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED55CA8-2E80-44CD-9E14-45799037B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="1290" windowWidth="17775" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Tag" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Password</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>Jenkins BuildTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git tag </t>
+  </si>
+  <si>
+    <t>v.1.1</t>
   </si>
 </sst>
 </file>
@@ -462,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -645,4 +652,27 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD8DBA-403B-484E-85CC-A3BAA805C26A}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED55CA8-2E80-44CD-9E14-45799037B38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BD1DC-17C1-4866-9EBB-590CEDD13CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1290" windowWidth="17775" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Password</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>v.1.1</t>
+  </si>
+  <si>
+    <t>v.1.2</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD8DBA-403B-484E-85CC-A3BAA805C26A}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +675,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BD1DC-17C1-4866-9EBB-590CEDD13CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7B4FD-59CB-4D0B-8C4B-B3A8AE7BD9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Password</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>v.1.2</t>
+  </si>
+  <si>
+    <t>v.1.3</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD8DBA-403B-484E-85CC-A3BAA805C26A}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,6 +686,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD7B4FD-59CB-4D0B-8C4B-B3A8AE7BD9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B191351-E7ED-4346-85E3-F942764A1B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Password</t>
   </si>
@@ -130,18 +130,6 @@
   </si>
   <si>
     <t>Jenkins BuildTag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git tag </t>
-  </si>
-  <si>
-    <t>v.1.1</t>
-  </si>
-  <si>
-    <t>v.1.2</t>
-  </si>
-  <si>
-    <t>v.1.3</t>
   </si>
 </sst>
 </file>
@@ -662,39 +650,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD8DBA-403B-484E-85CC-A3BAA805C26A}">
-  <dimension ref="B2:C6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B191351-E7ED-4346-85E3-F942764A1B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46F960-B12C-4B8E-950F-CA6608E1CFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Tag" sheetId="2" r:id="rId2"/>
+    <sheet name="JenkinGUI_1" sheetId="3" r:id="rId2"/>
+    <sheet name="JenkinGUI_Proj_2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>Password</t>
   </si>
@@ -123,20 +124,323 @@
     <t>Jenkins documentation</t>
   </si>
   <si>
-    <t>Tag1.1</t>
-  </si>
-  <si>
     <t>https://youtu.be/saiCjlJpfdA</t>
   </si>
   <si>
     <t>Jenkins BuildTag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenkin Download </t>
+  </si>
+  <si>
+    <t>https://www.jenkins.io/download/</t>
+  </si>
+  <si>
+    <t>https://www.jenkins.io/doc/book/installing/windows/</t>
+  </si>
+  <si>
+    <t>Jenkin HW &amp; SW Requirements</t>
+  </si>
+  <si>
+    <t>https://www.jenkins.io/doc/book/platform-information/support-policy-java/</t>
+  </si>
+  <si>
+    <t>Java Policy</t>
+  </si>
+  <si>
+    <t>https://confluence.it.keysight.com/display/SEP/Jenkins</t>
+  </si>
+  <si>
+    <t>Jenkin Confluence</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>New Item</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Build History</t>
+  </si>
+  <si>
+    <t>Manage Jenkins</t>
+  </si>
+  <si>
+    <t>My Views</t>
+  </si>
+  <si>
+    <t>System Configuration</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Plugin</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Clouds</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Freestyle Project</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Multi-configuration</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Multibranch Pipeline</t>
+  </si>
+  <si>
+    <t>Organization Folder</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Credendials</t>
+  </si>
+  <si>
+    <t>Credendials Provider</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>In-Process Script Approval</t>
+  </si>
+  <si>
+    <t>Status Information</t>
+  </si>
+  <si>
+    <t>System Information</t>
+  </si>
+  <si>
+    <t>System Log</t>
+  </si>
+  <si>
+    <t>Load Statics</t>
+  </si>
+  <si>
+    <t>About Jenkin</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Manage Old Data</t>
+  </si>
+  <si>
+    <t>Tool &amp; Actions</t>
+  </si>
+  <si>
+    <t>Reload Configuration from disk</t>
+  </si>
+  <si>
+    <t>Jenkins CLI</t>
+  </si>
+  <si>
+    <t>Script Console</t>
+  </si>
+  <si>
+    <t>Restart Safely</t>
+  </si>
+  <si>
+    <t>Prepare for Shutdown</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Build Pipeline View</t>
+  </si>
+  <si>
+    <t>Include a global view</t>
+  </si>
+  <si>
+    <t>List View</t>
+  </si>
+  <si>
+    <t>My View</t>
+  </si>
+  <si>
+    <t>Home directory</t>
+  </si>
+  <si>
+    <t>System Message</t>
+  </si>
+  <si>
+    <t># of executors</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Quiet period</t>
+  </si>
+  <si>
+    <t>SCM checkout retry count</t>
+  </si>
+  <si>
+    <t>Jenkins Location</t>
+  </si>
+  <si>
+    <t>Serve resource files from another domain</t>
+  </si>
+  <si>
+    <t>Global properties</t>
+  </si>
+  <si>
+    <t>Pipeline Speed / Durability</t>
+  </si>
+  <si>
+    <t>Usage Statistics</t>
+  </si>
+  <si>
+    <t>HTTP Proxy Configuration</t>
+  </si>
+  <si>
+    <t>Global Build Time Out</t>
+  </si>
+  <si>
+    <t>Develocity Build Scans</t>
+  </si>
+  <si>
+    <t>Develocity integration</t>
+  </si>
+  <si>
+    <t>Timestamper</t>
+  </si>
+  <si>
+    <t>Fingerprints</t>
+  </si>
+  <si>
+    <t>Administrative monitors configuration</t>
+  </si>
+  <si>
+    <t>Global Build Discarders</t>
+  </si>
+  <si>
+    <t>Default notification URL</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>GitHub API usage</t>
+  </si>
+  <si>
+    <t>GitHub Enterprise Servers</t>
+  </si>
+  <si>
+    <t>Global Pipeline Libraries</t>
+  </si>
+  <si>
+    <t>Build-timeout Plugin &gt; BuildStep Action</t>
+  </si>
+  <si>
+    <t>Git plugin</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Extended E-mail Notification</t>
+  </si>
+  <si>
+    <t>E-mail Notification</t>
+  </si>
+  <si>
+    <t>Maven Configuration</t>
+  </si>
+  <si>
+    <t>JDK Installations</t>
+  </si>
+  <si>
+    <t>GIT Installations</t>
+  </si>
+  <si>
+    <t>Gradle Installations</t>
+  </si>
+  <si>
+    <t>MSBuild Installations</t>
+  </si>
+  <si>
+    <t>Ant Installations</t>
+  </si>
+  <si>
+    <t>Maven Installations</t>
+  </si>
+  <si>
+    <t>Plugins</t>
+  </si>
+  <si>
+    <t>Updates</t>
+  </si>
+  <si>
+    <t>Available Plugins</t>
+  </si>
+  <si>
+    <t>Installed Plugins</t>
+  </si>
+  <si>
+    <t>Advanced Settings</t>
+  </si>
+  <si>
+    <t>New Items</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Workspace</t>
+  </si>
+  <si>
+    <t>Build Now</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Delete Project</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>https://www.jenkins.io/doc/book/pipeline/1</t>
+  </si>
+  <si>
+    <t>Jenkins Pipeline Help</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +456,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -169,16 +500,177 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C33"/>
+  <dimension ref="B2:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,189 +967,849 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>22</v>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>23</v>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{1CB71C98-5AD7-43F2-9DCE-E05B3D1C8299}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
-    <hyperlink ref="C14" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
-    <hyperlink ref="C21" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
-    <hyperlink ref="C25" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
-    <hyperlink ref="C29" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
-    <hyperlink ref="C15" r:id="rId9" xr:uid="{CCDDDD7F-0855-4F49-9FE0-819956E8932D}"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{1CB71C98-5AD7-43F2-9DCE-E05B3D1C8299}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
+    <hyperlink ref="C29" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
+    <hyperlink ref="C33" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
+    <hyperlink ref="C37" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{CCDDDD7F-0855-4F49-9FE0-819956E8932D}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{E30C2341-4842-430C-827D-A1082D78D98E}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{AE328094-FE76-4BB6-A0D1-AB3A4171C39C}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{2FD71990-0246-49B9-B6D4-E9AADDB71D18}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{7CFA14FE-0266-4EC6-8FD4-DA0355850C6A}"/>
+    <hyperlink ref="C41" r:id="rId14" xr:uid="{2D3F51BD-CBE1-41A7-BF6E-B068D0EAEF29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD8DBA-403B-484E-85CC-A3BAA805C26A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353A46AF-B547-4FAC-851E-AB27A78BE99C}">
+  <dimension ref="B1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:E14"/>
+    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24"/>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="25"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="21"/>
+      <c r="C37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="21"/>
+      <c r="C38" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="21"/>
+      <c r="C39" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="21"/>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="21"/>
+      <c r="C41" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="21"/>
+      <c r="C42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="21"/>
+      <c r="C43" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="21"/>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="21"/>
+      <c r="C45" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+      <c r="C46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="21"/>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="21"/>
+      <c r="C48" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="21"/>
+      <c r="C49" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="21"/>
+      <c r="C50" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="21"/>
+      <c r="C51" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="21"/>
+      <c r="C52" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="21"/>
+      <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="21"/>
+      <c r="C54" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="21"/>
+      <c r="C55" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="21"/>
+      <c r="C56" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="21"/>
+      <c r="C57" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="21"/>
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
+      <c r="C59" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="21"/>
+      <c r="C60" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="21"/>
+      <c r="C61" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="21"/>
+      <c r="C62" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="21"/>
+      <c r="C63" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+      <c r="C64" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="21"/>
+      <c r="C65" s="18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="22"/>
+      <c r="C66" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="21"/>
+      <c r="C69" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="21"/>
+      <c r="C71" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="21"/>
+      <c r="C72" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+      <c r="C73" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="22"/>
+      <c r="C74" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="21"/>
+      <c r="C77" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="21"/>
+      <c r="C78" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="22"/>
+      <c r="C79" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="B36:B66"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C10:C30"/>
+    <mergeCell ref="C31:C34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE58849-82CA-4D1E-8BAE-A1D9B323EAEE}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Jenkin_WA.xlsx
+++ b/Jenkin_WA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pradeep\Spectrum Analyzer\Jenk_Jira_Git_Org\Jenkin\JenkinStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA46F960-B12C-4B8E-950F-CA6608E1CFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AA6107-B393-47B2-9090-653F0F9167E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JenkinLoginDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="JenkinGUI_1" sheetId="3" r:id="rId2"/>
-    <sheet name="JenkinGUI_Proj_2" sheetId="4" r:id="rId3"/>
+    <sheet name="GUI_1" sheetId="3" r:id="rId2"/>
+    <sheet name="GUI_Project_2" sheetId="4" r:id="rId3"/>
+    <sheet name="Pipeline_3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>Password</t>
   </si>
@@ -434,6 +435,39 @@
   </si>
   <si>
     <t>Jenkins Pipeline Help</t>
+  </si>
+  <si>
+    <t>Pipeline Project</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Configure</t>
+  </si>
+  <si>
+    <t>Delete Pipeline</t>
+  </si>
+  <si>
+    <t>Full Stage View</t>
+  </si>
+  <si>
+    <t>Pipeline Syntax</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Build Trigger</t>
+  </si>
+  <si>
+    <t>Advance Project Option</t>
+  </si>
+  <si>
+    <t>C:\ProgramData\Jenkins\.jenkins\secrets\initialAdminPassword\</t>
+  </si>
+  <si>
+    <t>administrator, password</t>
   </si>
 </sst>
 </file>
@@ -588,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,6 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -953,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C41"/>
+  <dimension ref="B2:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,120 +1080,128 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+    <row r="28" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>30</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1166,18 +1209,18 @@
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{EDC77441-181E-4FC2-9189-7AEC62A942F4}"/>
     <hyperlink ref="C15" r:id="rId2" xr:uid="{1CB71C98-5AD7-43F2-9DCE-E05B3D1C8299}"/>
-    <hyperlink ref="C21" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
-    <hyperlink ref="C26" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
-    <hyperlink ref="C29" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
-    <hyperlink ref="C33" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
-    <hyperlink ref="C37" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{CCDDDD7F-0855-4F49-9FE0-819956E8932D}"/>
+    <hyperlink ref="C22" r:id="rId3" xr:uid="{6C324135-758B-4825-B635-9F6612CE19F6}"/>
+    <hyperlink ref="C23" r:id="rId4" xr:uid="{7A8752A7-CB71-41C1-89D9-394D71AC08CC}"/>
+    <hyperlink ref="C27" r:id="rId5" xr:uid="{C57B0824-59C0-4191-8E68-2994F51C69D6}"/>
+    <hyperlink ref="C30" r:id="rId6" xr:uid="{C50EFB8D-F115-4DFC-8F42-88CEDD7670EA}"/>
+    <hyperlink ref="C34" r:id="rId7" xr:uid="{D884D781-473F-4DEE-A458-AF88D42712B6}"/>
+    <hyperlink ref="C38" r:id="rId8" xr:uid="{23D10831-E640-4BD1-A3E2-06738BF8AB45}"/>
+    <hyperlink ref="C24" r:id="rId9" xr:uid="{CCDDDD7F-0855-4F49-9FE0-819956E8932D}"/>
     <hyperlink ref="C2" r:id="rId10" xr:uid="{E30C2341-4842-430C-827D-A1082D78D98E}"/>
     <hyperlink ref="C4" r:id="rId11" xr:uid="{AE328094-FE76-4BB6-A0D1-AB3A4171C39C}"/>
     <hyperlink ref="C6" r:id="rId12" xr:uid="{2FD71990-0246-49B9-B6D4-E9AADDB71D18}"/>
     <hyperlink ref="C8" r:id="rId13" xr:uid="{7CFA14FE-0266-4EC6-8FD4-DA0355850C6A}"/>
-    <hyperlink ref="C41" r:id="rId14" xr:uid="{2D3F51BD-CBE1-41A7-BF6E-B068D0EAEF29}"/>
+    <hyperlink ref="C42" r:id="rId14" xr:uid="{2D3F51BD-CBE1-41A7-BF6E-B068D0EAEF29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1187,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353A46AF-B547-4FAC-851E-AB27A78BE99C}">
   <dimension ref="B1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1246,10 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1214,59 +1257,59 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -1274,49 +1317,49 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1324,40 +1367,40 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="8" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="5" t="s">
         <v>65</v>
       </c>
@@ -1366,32 +1409,32 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="3" t="s">
         <v>70</v>
       </c>
@@ -1400,9 +1443,9 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="23" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="24" t="s">
         <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1410,43 +1453,43 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
       <c r="E28" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="27" t="s">
         <v>78</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -1454,32 +1497,32 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1487,188 +1530,188 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="21"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="21"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="21"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="21"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="21"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="21"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="21"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -1676,44 +1719,44 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="21"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="21"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="19" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="21"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="22"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="3" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="21" t="s">
         <v>120</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -1721,19 +1764,19 @@
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="21"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="21"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="22"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="3" t="s">
         <v>124</v>
       </c>
@@ -1762,7 +1805,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1812,4 +1855,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146800FD-2C46-418F-ADB1-2C592692594F}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>